--- a/data/trans_orig/P43-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P43-Edad-trans_orig.xlsx
@@ -624,19 +624,19 @@
         <v>26696</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>18721</v>
+        <v>18356</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>39142</v>
+        <v>37484</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.05743917666866621</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.04028054902699568</v>
+        <v>0.03949524826916447</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.08421883164937524</v>
+        <v>0.0806522736915439</v>
       </c>
     </row>
     <row r="5">
@@ -653,19 +653,19 @@
         <v>438070</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>425624</v>
+        <v>427282</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>446045</v>
+        <v>446410</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9425608233313338</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9157811683506247</v>
+        <v>0.9193477263084563</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.959719450973004</v>
+        <v>0.960504751730836</v>
       </c>
     </row>
     <row r="6">
@@ -715,19 +715,19 @@
         <v>81512</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>65429</v>
+        <v>64652</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>99694</v>
+        <v>98246</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1305206010550725</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1047677798183309</v>
+        <v>0.1035236198211264</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1596346074368559</v>
+        <v>0.1573167256227049</v>
       </c>
     </row>
     <row r="8">
@@ -744,19 +744,19 @@
         <v>542999</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>524817</v>
+        <v>526265</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>559082</v>
+        <v>559859</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8694793989449274</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8403653925631442</v>
+        <v>0.8426832743772953</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8952322201816694</v>
+        <v>0.8964763801788737</v>
       </c>
     </row>
     <row r="9">
@@ -806,19 +806,19 @@
         <v>233845</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>208816</v>
+        <v>208993</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>258530</v>
+        <v>260506</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3395133709188778</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3031743893331401</v>
+        <v>0.3034320063937606</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3753539774691516</v>
+        <v>0.3782223675230455</v>
       </c>
     </row>
     <row r="11">
@@ -835,19 +835,19 @@
         <v>454919</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>430234</v>
+        <v>428258</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>479948</v>
+        <v>479771</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.6604866290811222</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6246460225308483</v>
+        <v>0.6217776324769545</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.6968256106668601</v>
+        <v>0.6965679936062396</v>
       </c>
     </row>
     <row r="12">
@@ -897,19 +897,19 @@
         <v>317458</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>294213</v>
+        <v>296341</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>339057</v>
+        <v>339466</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.6189047407121372</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.573586537276349</v>
+        <v>0.5777366380142928</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.6610134266233172</v>
+        <v>0.6618102220204128</v>
       </c>
     </row>
     <row r="14">
@@ -926,19 +926,19 @@
         <v>195477</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>173878</v>
+        <v>173469</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>218722</v>
+        <v>216594</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.3810952592878629</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3389865733766827</v>
+        <v>0.3381897779795872</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.426413462723651</v>
+        <v>0.4222633619857072</v>
       </c>
     </row>
     <row r="15">
@@ -988,19 +988,19 @@
         <v>303417</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>284966</v>
+        <v>287024</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>320060</v>
+        <v>319912</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.7564419079106461</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.7104410731378608</v>
+        <v>0.7155732758917385</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.7979333536554302</v>
+        <v>0.7975651333592754</v>
       </c>
     </row>
     <row r="17">
@@ -1017,19 +1017,19 @@
         <v>97694</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>81051</v>
+        <v>81199</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>116145</v>
+        <v>114087</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2435580920893539</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2020666463445698</v>
+        <v>0.2024348666407247</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2895589268621392</v>
+        <v>0.2844267241082615</v>
       </c>
     </row>
     <row r="18">
@@ -1079,19 +1079,19 @@
         <v>215164</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>197731</v>
+        <v>198652</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>231410</v>
+        <v>232308</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.6343490506078178</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.5829531670718391</v>
+        <v>0.5856698305945454</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.6822481859722066</v>
+        <v>0.684893364053642</v>
       </c>
     </row>
     <row r="20">
@@ -1108,19 +1108,19 @@
         <v>124024</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>107778</v>
+        <v>106880</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>141457</v>
+        <v>140536</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.3656509493921822</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.3177518140277928</v>
+        <v>0.315106635946358</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.4170468329281609</v>
+        <v>0.4143301694054542</v>
       </c>
     </row>
     <row r="21">
@@ -1170,19 +1170,19 @@
         <v>95351</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>78429</v>
+        <v>78472</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>113469</v>
+        <v>113475</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.290509754333561</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2389521699286341</v>
+        <v>0.2390847676887819</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3457094623608276</v>
+        <v>0.3457277185343695</v>
       </c>
     </row>
     <row r="23">
@@ -1199,19 +1199,19 @@
         <v>232869</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>214751</v>
+        <v>214745</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>249791</v>
+        <v>249748</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.709490245666439</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.6542905376391724</v>
+        <v>0.6542722814656304</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.7610478300713659</v>
+        <v>0.760915232311218</v>
       </c>
     </row>
     <row r="24">
@@ -1261,19 +1261,19 @@
         <v>1273441</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>1217049</v>
+        <v>1210615</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>1335129</v>
+        <v>1324163</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.3790575110326052</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.3622715886032239</v>
+        <v>0.3603562959309313</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3974197375280143</v>
+        <v>0.3941554257213243</v>
       </c>
     </row>
     <row r="26">
@@ -1290,19 +1290,19 @@
         <v>2086053</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>2024365</v>
+        <v>2035331</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>2142445</v>
+        <v>2148879</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.6209424889673948</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.6025802624719857</v>
+        <v>0.6058445742786757</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.6377284113967759</v>
+        <v>0.6396437040690687</v>
       </c>
     </row>
     <row r="27">
@@ -1473,19 +1473,19 @@
         <v>27387</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>18165</v>
+        <v>18846</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>40340</v>
+        <v>39221</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.06394704934767752</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.04241349372989896</v>
+        <v>0.0440041854439608</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.09419171389115888</v>
+        <v>0.09157916796297974</v>
       </c>
     </row>
     <row r="5">
@@ -1502,19 +1502,19 @@
         <v>400890</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>387937</v>
+        <v>389056</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>410112</v>
+        <v>409431</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9360529506523225</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.905808286108841</v>
+        <v>0.9084208320370203</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.957586506270101</v>
+        <v>0.9559958145560392</v>
       </c>
     </row>
     <row r="6">
@@ -1564,19 +1564,19 @@
         <v>79982</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>64099</v>
+        <v>63830</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>98114</v>
+        <v>97407</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1320279853348136</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1058098867636268</v>
+        <v>0.1053657482768039</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.161957789390086</v>
+        <v>0.1607914106858286</v>
       </c>
     </row>
     <row r="8">
@@ -1593,19 +1593,19 @@
         <v>525815</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>507683</v>
+        <v>508390</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>541698</v>
+        <v>541967</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8679720146651864</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8380422106099144</v>
+        <v>0.8392085893141714</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8941901132363733</v>
+        <v>0.8946342517231959</v>
       </c>
     </row>
     <row r="9">
@@ -1655,19 +1655,19 @@
         <v>235383</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>208000</v>
+        <v>211235</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>261286</v>
+        <v>265953</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3330040628082229</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2942651176201103</v>
+        <v>0.2988414556596818</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3696512357549506</v>
+        <v>0.3762532484079725</v>
       </c>
     </row>
     <row r="11">
@@ -1684,19 +1684,19 @@
         <v>471463</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>445560</v>
+        <v>440893</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>498846</v>
+        <v>495611</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.6669959371917771</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6303487642450494</v>
+        <v>0.6237467515920275</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7057348823798895</v>
+        <v>0.7011585443403181</v>
       </c>
     </row>
     <row r="12">
@@ -1746,19 +1746,19 @@
         <v>410514</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>385657</v>
+        <v>387730</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>434675</v>
+        <v>437093</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.6673357551628439</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.6269287889421701</v>
+        <v>0.6302977380317</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.7066120699024027</v>
+        <v>0.7105431965699203</v>
       </c>
     </row>
     <row r="14">
@@ -1775,19 +1775,19 @@
         <v>204639</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>180478</v>
+        <v>178060</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>229496</v>
+        <v>227423</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.3326642448371561</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2933879300975978</v>
+        <v>0.2894568034300797</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3730712110578301</v>
+        <v>0.3697022619682998</v>
       </c>
     </row>
     <row r="15">
@@ -1837,19 +1837,19 @@
         <v>408088</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>393642</v>
+        <v>393040</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>419583</v>
+        <v>418807</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.9153645379787481</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.8829621597629208</v>
+        <v>0.8816111724419613</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.9411498940260942</v>
+        <v>0.9394087447308721</v>
       </c>
     </row>
     <row r="17">
@@ -1866,19 +1866,19 @@
         <v>37732</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>26237</v>
+        <v>27013</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>52178</v>
+        <v>52780</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.0846354620212519</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.05885010597390571</v>
+        <v>0.06059125526912881</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1170378402370792</v>
+        <v>0.1183888275580395</v>
       </c>
     </row>
     <row r="18">
@@ -1928,19 +1928,19 @@
         <v>299497</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>284599</v>
+        <v>282980</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>312575</v>
+        <v>311888</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.8531283327299342</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.8106911363713381</v>
+        <v>0.8060790294111977</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.8903815099564898</v>
+        <v>0.888424431172998</v>
       </c>
     </row>
     <row r="20">
@@ -1957,19 +1957,19 @@
         <v>51560</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>38482</v>
+        <v>39169</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>66458</v>
+        <v>68077</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1468716672700658</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1096184900435103</v>
+        <v>0.1115755688270022</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.189308863628662</v>
+        <v>0.1939209705888035</v>
       </c>
     </row>
     <row r="21">
@@ -2019,19 +2019,19 @@
         <v>206399</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>185631</v>
+        <v>185596</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>227376</v>
+        <v>226352</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.5380474164698341</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.4839082615182407</v>
+        <v>0.4838156276668134</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.5927288670155184</v>
+        <v>0.5900595157701078</v>
       </c>
     </row>
     <row r="23">
@@ -2048,19 +2048,19 @@
         <v>177209</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>156232</v>
+        <v>157256</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>197977</v>
+        <v>198012</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.4619525835301659</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.4072711329844817</v>
+        <v>0.4099404842298922</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.5160917384817593</v>
+        <v>0.5161843723331867</v>
       </c>
     </row>
     <row r="24">
@@ -2110,19 +2110,19 @@
         <v>1667249</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>1604743</v>
+        <v>1606638</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>1727535</v>
+        <v>1730748</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.4714326154561919</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.4537584439578993</v>
+        <v>0.454294398288339</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.4884791313500955</v>
+        <v>0.4893877316869233</v>
       </c>
     </row>
     <row r="26">
@@ -2139,19 +2139,19 @@
         <v>1869309</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>1809023</v>
+        <v>1805810</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>1931815</v>
+        <v>1929920</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.5285673845438081</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.5115208686499044</v>
+        <v>0.5106122683130766</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.5462415560421008</v>
+        <v>0.545705601711661</v>
       </c>
     </row>
     <row r="27">
@@ -2322,19 +2322,19 @@
         <v>21550</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>13883</v>
+        <v>13743</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>31445</v>
+        <v>31730</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.05558833778074454</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.03581059873733255</v>
+        <v>0.03544988582192594</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.08111304730285257</v>
+        <v>0.0818478692554731</v>
       </c>
     </row>
     <row r="5">
@@ -2351,19 +2351,19 @@
         <v>366116</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>356221</v>
+        <v>355936</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>373783</v>
+        <v>373923</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9444116622192554</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9188869526971474</v>
+        <v>0.9181521307445268</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9641894012626669</v>
+        <v>0.9645501141780738</v>
       </c>
     </row>
     <row r="6">
@@ -2413,19 +2413,19 @@
         <v>75300</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>59041</v>
+        <v>60576</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>91632</v>
+        <v>93141</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1340911275431717</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1051364442870644</v>
+        <v>0.1078710315703214</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1631728781956325</v>
+        <v>0.1658597925867647</v>
       </c>
     </row>
     <row r="8">
@@ -2442,19 +2442,19 @@
         <v>486262</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>469930</v>
+        <v>468421</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>502521</v>
+        <v>500986</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8659088724568283</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8368271218043676</v>
+        <v>0.8341402074132354</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8948635557129356</v>
+        <v>0.8921289684296786</v>
       </c>
     </row>
     <row r="9">
@@ -2504,19 +2504,19 @@
         <v>226055</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>202993</v>
+        <v>201370</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>251271</v>
+        <v>252527</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3435667816419135</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3085166160962018</v>
+        <v>0.306049012391095</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3818911116300338</v>
+        <v>0.3837988424125818</v>
       </c>
     </row>
     <row r="11">
@@ -2533,19 +2533,19 @@
         <v>431911</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>406695</v>
+        <v>405439</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>454973</v>
+        <v>456596</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.6564332183580864</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6181088883699662</v>
+        <v>0.6162011575874182</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.6914833839037983</v>
+        <v>0.6939509876089049</v>
       </c>
     </row>
     <row r="12">
@@ -2595,19 +2595,19 @@
         <v>427426</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>401453</v>
+        <v>400704</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>451173</v>
+        <v>454185</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.6605434576653614</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.6204039991538534</v>
+        <v>0.6192473791015719</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.6972413090772707</v>
+        <v>0.7018962661067515</v>
       </c>
     </row>
     <row r="14">
@@ -2624,19 +2624,19 @@
         <v>219657</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>195910</v>
+        <v>192898</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>245630</v>
+        <v>246379</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.3394565423346387</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3027586909227293</v>
+        <v>0.298103733893249</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3795960008461466</v>
+        <v>0.3807526208984282</v>
       </c>
     </row>
     <row r="15">
@@ -2686,19 +2686,19 @@
         <v>446851</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>431484</v>
+        <v>431259</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>459496</v>
+        <v>459075</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.9034332394252006</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.8723649334916126</v>
+        <v>0.8719094872257634</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.9289985540026556</v>
+        <v>0.9281472261681178</v>
       </c>
     </row>
     <row r="17">
@@ -2715,19 +2715,19 @@
         <v>47763</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>35118</v>
+        <v>35539</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>63130</v>
+        <v>63355</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.09656676057479936</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.07100144599734377</v>
+        <v>0.07185277383188181</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1276350665083865</v>
+        <v>0.1280905127742365</v>
       </c>
     </row>
     <row r="18">
@@ -2777,19 +2777,19 @@
         <v>323145</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>308929</v>
+        <v>308531</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>335434</v>
+        <v>335436</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.860145187331394</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.82230453003882</v>
+        <v>0.8212442771925287</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.8928544045443059</v>
+        <v>0.8928608729637371</v>
       </c>
     </row>
     <row r="20">
@@ -2806,19 +2806,19 @@
         <v>52542</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>40253</v>
+        <v>40251</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>66758</v>
+        <v>67156</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.139854812668606</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1071455954556941</v>
+        <v>0.107139127036263</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1776954699611803</v>
+        <v>0.1787557228074717</v>
       </c>
     </row>
     <row r="21">
@@ -2868,19 +2868,19 @@
         <v>236972</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>213392</v>
+        <v>214513</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>258349</v>
+        <v>259608</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.5997584424533736</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.540080184696264</v>
+        <v>0.5429179154995483</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.6538638577323019</v>
+        <v>0.6570484497883655</v>
       </c>
     </row>
     <row r="23">
@@ -2897,19 +2897,19 @@
         <v>158140</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>136763</v>
+        <v>135504</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>181720</v>
+        <v>180599</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.4002415575466264</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.3461361422676981</v>
+        <v>0.3429515502116344</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.459919815303736</v>
+        <v>0.4570820845004518</v>
       </c>
     </row>
     <row r="24">
@@ -2959,19 +2959,19 @@
         <v>1757300</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>1693296</v>
+        <v>1697269</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>1819309</v>
+        <v>1817034</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.4992770063475405</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.4810924288000681</v>
+        <v>0.4822212055378957</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.5168945766816806</v>
+        <v>0.5162482111536849</v>
       </c>
     </row>
     <row r="26">
@@ -2988,19 +2988,19 @@
         <v>1762390</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>1700381</v>
+        <v>1702656</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>1826394</v>
+        <v>1822421</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.5007229936524594</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.4831054233183192</v>
+        <v>0.4837517888463151</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.5189075711999318</v>
+        <v>0.5177787944621043</v>
       </c>
     </row>
     <row r="27">
@@ -3171,19 +3171,19 @@
         <v>21938</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>11736</v>
+        <v>11011</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>38609</v>
+        <v>34756</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.07257140879364186</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.038822397076292</v>
+        <v>0.03642504199873658</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1277161079540762</v>
+        <v>0.1149710121758913</v>
       </c>
     </row>
     <row r="5">
@@ -3200,19 +3200,19 @@
         <v>280364</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>263693</v>
+        <v>267546</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>290566</v>
+        <v>291291</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.927428591206358</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8722838920459242</v>
+        <v>0.8850289878241089</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9611776029237081</v>
+        <v>0.9635749580012635</v>
       </c>
     </row>
     <row r="6">
@@ -3262,19 +3262,19 @@
         <v>53580</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>40678</v>
+        <v>39951</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>67332</v>
+        <v>68755</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.145117602139039</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1101721184190963</v>
+        <v>0.1082027584177362</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1823627492803273</v>
+        <v>0.1862161828826846</v>
       </c>
     </row>
     <row r="8">
@@ -3291,19 +3291,19 @@
         <v>315641</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>301889</v>
+        <v>300466</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>328543</v>
+        <v>329270</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.854882397860961</v>
+        <v>0.8548823978609611</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8176372507196727</v>
+        <v>0.8137838171173154</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8898278815809036</v>
+        <v>0.8917972415822638</v>
       </c>
     </row>
     <row r="9">
@@ -3353,19 +3353,19 @@
         <v>141599</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>126174</v>
+        <v>124772</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>158714</v>
+        <v>157956</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3337770532126125</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2974156993084743</v>
+        <v>0.2941118172155598</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3741195427123974</v>
+        <v>0.3723320293364793</v>
       </c>
     </row>
     <row r="11">
@@ -3382,19 +3382,19 @@
         <v>282634</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>265519</v>
+        <v>266277</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>298059</v>
+        <v>299461</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.6662229467873875</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6258804572876028</v>
+        <v>0.6276679706635209</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7025843006915258</v>
+        <v>0.7058881827844403</v>
       </c>
     </row>
     <row r="12">
@@ -3444,19 +3444,19 @@
         <v>316513</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>299268</v>
+        <v>298512</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>333978</v>
+        <v>332236</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.6177656104894275</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.5841077414540219</v>
+        <v>0.5826309923811144</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.6518535228040331</v>
+        <v>0.6484537822033986</v>
       </c>
     </row>
     <row r="14">
@@ -3473,19 +3473,19 @@
         <v>195838</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>178373</v>
+        <v>180115</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>213083</v>
+        <v>213839</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.3822343895105725</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.348146477195967</v>
+        <v>0.3515462177966016</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4158922585459782</v>
+        <v>0.4173690076188861</v>
       </c>
     </row>
     <row r="15">
@@ -3535,19 +3535,19 @@
         <v>355760</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>343543</v>
+        <v>342425</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>368748</v>
+        <v>368981</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.7963343865766167</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.7689872084164011</v>
+        <v>0.7664859217039229</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.8254070567270345</v>
+        <v>0.8259279977563033</v>
       </c>
     </row>
     <row r="17">
@@ -3564,19 +3564,19 @@
         <v>90987</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>77999</v>
+        <v>77766</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>103204</v>
+        <v>104322</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2036656134233833</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1745929432729654</v>
+        <v>0.1740720022436967</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2310127915835989</v>
+        <v>0.2335140782960771</v>
       </c>
     </row>
     <row r="18">
@@ -3626,19 +3626,19 @@
         <v>296622</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>285987</v>
+        <v>285404</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>305866</v>
+        <v>305787</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.85091850949555</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.8204118411181288</v>
+        <v>0.8187395979374444</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.8774387503886943</v>
+        <v>0.8772103940375041</v>
       </c>
     </row>
     <row r="20">
@@ -3655,19 +3655,19 @@
         <v>51968</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>42724</v>
+        <v>42803</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>62603</v>
+        <v>63186</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1490814905044499</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1225612496113055</v>
+        <v>0.1227896059624959</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1795881588818711</v>
+        <v>0.1812604020625556</v>
       </c>
     </row>
     <row r="21">
@@ -3717,19 +3717,19 @@
         <v>280479</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>266580</v>
+        <v>266020</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>294002</v>
+        <v>293725</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.7021777511494299</v>
+        <v>0.70217775114943</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.6673800765800689</v>
+        <v>0.6659793966180941</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.736030628813211</v>
+        <v>0.7353372935874077</v>
       </c>
     </row>
     <row r="23">
@@ -3746,19 +3746,19 @@
         <v>118963</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>105440</v>
+        <v>105717</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>132862</v>
+        <v>133422</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.29782224885057</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2639693711867889</v>
+        <v>0.2646627064125923</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.3326199234199304</v>
+        <v>0.3340206033819058</v>
       </c>
     </row>
     <row r="24">
@@ -3808,19 +3808,19 @@
         <v>1466492</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>1419697</v>
+        <v>1421410</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>1514735</v>
+        <v>1513528</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.5232078792822897</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.5065125460456329</v>
+        <v>0.507123797453027</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.5404197333075912</v>
+        <v>0.5399890264721099</v>
       </c>
     </row>
     <row r="26">
@@ -3837,19 +3837,19 @@
         <v>1336394</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>1288151</v>
+        <v>1289358</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>1383189</v>
+        <v>1381476</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.4767921207177104</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.4595802666924089</v>
+        <v>0.4600109735278901</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.4934874539543671</v>
+        <v>0.4928762025469728</v>
       </c>
     </row>
     <row r="27">
